--- a/3d_code/BetchenAnotherVersion/porous_plug.xlsx
+++ b/3d_code/BetchenAnotherVersion/porous_plug.xlsx
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="20">
   <si>
     <t>Column1</t>
   </si>
@@ -122,6 +122,18 @@
   </si>
   <si>
     <t>P/RHO/U^2</t>
+  </si>
+  <si>
+    <t>x/H</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>BOUNDARY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delta y </t>
   </si>
 </sst>
 </file>
@@ -1557,7 +1569,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>small_timestep!$G$2:$G$63</c:f>
+              <c:f>small_timestep!$G$6:$G$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="62"/>
@@ -1752,7 +1764,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>small_timestep!$H$2:$H$63</c:f>
+              <c:f>small_timestep!$H$6:$H$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="62"/>
@@ -2200,7 +2212,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>small_timestep!$G$2:$G$63</c:f>
+              <c:f>small_timestep!$G$6:$G$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="62"/>
@@ -2395,7 +2407,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>small_timestep!$I$2:$I$63</c:f>
+              <c:f>small_timestep!$I$6:$I$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="62"/>
@@ -5082,13 +5094,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5120,13 +5132,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5486,7 +5498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -7343,10 +7355,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O63"/>
+  <dimension ref="A2:U67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7356,199 +7368,94 @@
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B1" s="5" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2">
+        <f>0.02/21</f>
+        <v>9.5238095238095238E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="5" t="s">
+      <c r="G5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I5" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="2">
-        <v>4.5238099999999996E-3</v>
-      </c>
-      <c r="D2" s="2">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="C6" s="2">
+        <v>4.5238099999999996E-3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E6" s="2">
         <v>2.1413199999999999E-3</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F6" s="3">
         <v>8.3238099999999998E-5</v>
       </c>
-      <c r="G2" s="5">
-        <f>B2/$M$2</f>
+      <c r="G6" s="5">
+        <f>B6/$M$6</f>
         <v>0</v>
       </c>
-      <c r="H2" s="6">
-        <f>F2/$O$2</f>
+      <c r="H6" s="6">
+        <f>F6/$O$6</f>
         <v>1.4863946428571428</v>
       </c>
-      <c r="I2" s="5">
-        <f>E2/1000/F2^2</f>
+      <c r="I6" s="5">
+        <f>E6/1000/F6^2</f>
         <v>309.05605489438079</v>
       </c>
-      <c r="L2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2">
+      <c r="L6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6">
         <v>0.01</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N6" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O6" s="4">
         <f>0.000056</f>
         <v>5.5999999999999999E-5</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2">
-        <v>9.6428599999999996E-4</v>
-      </c>
-      <c r="C3" s="2">
-        <v>4.5238099999999996E-3</v>
-      </c>
-      <c r="D3" s="2">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2.1413199999999999E-3</v>
-      </c>
-      <c r="F3" s="3">
-        <v>8.1994299999999995E-5</v>
-      </c>
-      <c r="G3" s="5">
-        <f t="shared" ref="G3:G61" si="0">B3/$M$2</f>
-        <v>9.6428599999999989E-2</v>
-      </c>
-      <c r="H3" s="6">
-        <f t="shared" ref="H3:H61" si="1">F3/$O$2</f>
-        <v>1.4641839285714284</v>
-      </c>
-      <c r="I3" s="5">
-        <f t="shared" ref="I3:I61" si="2">E3/1000/F3^2</f>
-        <v>318.5035286660347</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2">
-        <v>2.8703000000000001E-3</v>
-      </c>
-      <c r="C4" s="2">
-        <v>4.5238099999999996E-3</v>
-      </c>
-      <c r="D4" s="2">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2.1174399999999999E-3</v>
-      </c>
-      <c r="F4" s="3">
-        <v>8.3529399999999993E-5</v>
-      </c>
-      <c r="G4" s="5">
-        <f t="shared" si="0"/>
-        <v>0.28703000000000001</v>
-      </c>
-      <c r="H4" s="6">
-        <f t="shared" si="1"/>
-        <v>1.4915964285714285</v>
-      </c>
-      <c r="I4" s="5">
-        <f t="shared" si="2"/>
-        <v>303.48161692994762</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2">
-        <v>4.7311999999999996E-3</v>
-      </c>
-      <c r="C5" s="2">
-        <v>4.5238099999999996E-3</v>
-      </c>
-      <c r="D5" s="2">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2.1097400000000001E-3</v>
-      </c>
-      <c r="F5" s="3">
-        <v>8.2459499999999999E-5</v>
-      </c>
-      <c r="G5" s="5">
-        <f t="shared" si="0"/>
-        <v>0.47311999999999993</v>
-      </c>
-      <c r="H5" s="6">
-        <f t="shared" si="1"/>
-        <v>1.4724910714285715</v>
-      </c>
-      <c r="I5" s="5">
-        <f t="shared" si="2"/>
-        <v>310.27554194741691</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2">
-        <v>6.5469899999999999E-3</v>
-      </c>
-      <c r="C6" s="2">
-        <v>4.5238099999999996E-3</v>
-      </c>
-      <c r="D6" s="2">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="E6" s="2">
-        <v>2.09217E-3</v>
-      </c>
-      <c r="F6" s="3">
-        <v>8.3110799999999997E-5</v>
-      </c>
-      <c r="G6" s="5">
-        <f t="shared" si="0"/>
-        <v>0.65469900000000003</v>
-      </c>
-      <c r="H6" s="6">
-        <f t="shared" si="1"/>
-        <v>1.4841214285714286</v>
-      </c>
-      <c r="I6" s="5">
-        <f t="shared" si="2"/>
-        <v>302.88798424106665</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="T6" t="s">
+        <v>8</v>
+      </c>
+      <c r="U6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="2">
-        <v>8.3176699999999992E-3</v>
+        <v>9.6428599999999996E-4</v>
       </c>
       <c r="C7" s="2">
         <v>4.5238099999999996E-3</v>
@@ -7557,28 +7464,35 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E7" s="2">
-        <v>2.0814800000000001E-3</v>
+        <v>2.1413199999999999E-3</v>
       </c>
       <c r="F7" s="3">
-        <v>8.2689500000000002E-5</v>
+        <v>8.1994299999999995E-5</v>
       </c>
       <c r="G7" s="5">
-        <f t="shared" si="0"/>
-        <v>0.83176699999999992</v>
+        <f t="shared" ref="G7:G65" si="0">B7/$M$6</f>
+        <v>9.6428599999999989E-2</v>
       </c>
       <c r="H7" s="6">
-        <f t="shared" si="1"/>
-        <v>1.4765982142857144</v>
+        <f t="shared" ref="H7:H65" si="1">F7/$O$6</f>
+        <v>1.4641839285714284</v>
       </c>
       <c r="I7" s="5">
-        <f t="shared" si="2"/>
-        <v>304.41882865290779</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" ref="I7:I65" si="2">E7/1000/F7^2</f>
+        <v>318.5035286660347</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f>S7*D2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="2">
-        <v>1.00432E-2</v>
+        <v>2.8703000000000001E-3</v>
       </c>
       <c r="C8" s="2">
         <v>4.5238099999999996E-3</v>
@@ -7587,28 +7501,35 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E8" s="2">
-        <v>2.06697E-3</v>
+        <v>2.1174399999999999E-3</v>
       </c>
       <c r="F8" s="3">
-        <v>8.2947699999999999E-5</v>
+        <v>8.3529399999999993E-5</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
-        <v>1.0043200000000001</v>
+        <v>0.28703000000000001</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" si="1"/>
-        <v>1.4812089285714285</v>
+        <v>1.4915964285714285</v>
       </c>
       <c r="I8" s="5">
         <f t="shared" si="2"/>
-        <v>300.41767229174735</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+        <v>303.48161692994762</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <f>D2/2</f>
+        <v>4.7619047619047619E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="2">
-        <v>1.17237E-2</v>
+        <v>4.7311999999999996E-3</v>
       </c>
       <c r="C9" s="2">
         <v>4.5238099999999996E-3</v>
@@ -7617,28 +7538,35 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E9" s="2">
-        <v>2.05543E-3</v>
+        <v>2.1097400000000001E-3</v>
       </c>
       <c r="F9" s="3">
-        <v>8.2791099999999994E-5</v>
+        <v>8.2459499999999999E-5</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" si="0"/>
-        <v>1.1723699999999999</v>
+        <v>0.47311999999999993</v>
       </c>
       <c r="H9" s="6">
         <f t="shared" si="1"/>
-        <v>1.4784124999999999</v>
+        <v>1.4724910714285715</v>
       </c>
       <c r="I9" s="5">
         <f t="shared" si="2"/>
-        <v>299.87163338924518</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+        <v>310.27554194741691</v>
+      </c>
+      <c r="S9">
+        <v>2</v>
+      </c>
+      <c r="T9">
+        <f>T8+$D$2</f>
+        <v>1.4285714285714286E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="2">
-        <v>1.3358999999999999E-2</v>
+        <v>6.5469899999999999E-3</v>
       </c>
       <c r="C10" s="2">
         <v>4.5238099999999996E-3</v>
@@ -7647,28 +7575,35 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E10" s="2">
-        <v>2.0425500000000002E-3</v>
+        <v>2.09217E-3</v>
       </c>
       <c r="F10" s="3">
-        <v>8.2881599999999996E-5</v>
+        <v>8.3110799999999997E-5</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="0"/>
-        <v>1.3358999999999999</v>
+        <v>0.65469900000000003</v>
       </c>
       <c r="H10" s="6">
         <f t="shared" si="1"/>
-        <v>1.4800285714285715</v>
+        <v>1.4841214285714286</v>
       </c>
       <c r="I10" s="5">
         <f t="shared" si="2"/>
-        <v>297.34212698390843</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+        <v>302.88798424106665</v>
+      </c>
+      <c r="S10">
+        <v>3</v>
+      </c>
+      <c r="T10">
+        <f t="shared" ref="T10:T29" si="3">T9+$D$2</f>
+        <v>2.3809523809523812E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="2">
-        <v>1.4949199999999999E-2</v>
+        <v>8.3176699999999992E-3</v>
       </c>
       <c r="C11" s="2">
         <v>4.5238099999999996E-3</v>
@@ -7677,28 +7612,35 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E11" s="2">
-        <v>2.03112E-3</v>
+        <v>2.0814800000000001E-3</v>
       </c>
       <c r="F11" s="3">
-        <v>8.2836699999999999E-5</v>
+        <v>8.2689500000000002E-5</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="0"/>
-        <v>1.4949199999999998</v>
+        <v>0.83176699999999992</v>
       </c>
       <c r="H11" s="6">
         <f t="shared" si="1"/>
-        <v>1.4792267857142858</v>
+        <v>1.4765982142857144</v>
       </c>
       <c r="I11" s="5">
         <f t="shared" si="2"/>
-        <v>295.99883638970454</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+        <v>304.41882865290779</v>
+      </c>
+      <c r="S11">
+        <v>4</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="3"/>
+        <v>3.3333333333333335E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="2">
-        <v>1.6494399999999999E-2</v>
+        <v>1.00432E-2</v>
       </c>
       <c r="C12" s="2">
         <v>4.5238099999999996E-3</v>
@@ -7707,28 +7649,35 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E12" s="2">
-        <v>2.01921E-3</v>
+        <v>2.06697E-3</v>
       </c>
       <c r="F12" s="3">
-        <v>8.2849700000000001E-5</v>
+        <v>8.2947699999999999E-5</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="0"/>
-        <v>1.6494399999999998</v>
+        <v>1.0043200000000001</v>
       </c>
       <c r="H12" s="6">
         <f t="shared" si="1"/>
-        <v>1.4794589285714286</v>
+        <v>1.4812089285714285</v>
       </c>
       <c r="I12" s="5">
         <f t="shared" si="2"/>
-        <v>294.17083147999722</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+        <v>300.41767229174735</v>
+      </c>
+      <c r="S12">
+        <v>5</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="3"/>
+        <v>4.2857142857142859E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="2">
-        <v>1.7994400000000001E-2</v>
+        <v>1.17237E-2</v>
       </c>
       <c r="C13" s="2">
         <v>4.5238099999999996E-3</v>
@@ -7737,28 +7686,35 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E13" s="2">
-        <v>2.0083499999999999E-3</v>
+        <v>2.05543E-3</v>
       </c>
       <c r="F13" s="3">
-        <v>8.2864199999999999E-5</v>
+        <v>8.2791099999999994E-5</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" si="0"/>
-        <v>1.7994399999999999</v>
+        <v>1.1723699999999999</v>
       </c>
       <c r="H13" s="6">
         <f t="shared" si="1"/>
-        <v>1.4797178571428571</v>
+        <v>1.4784124999999999</v>
       </c>
       <c r="I13" s="5">
         <f t="shared" si="2"/>
-        <v>292.48629206821488</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+        <v>299.87163338924518</v>
+      </c>
+      <c r="S13">
+        <v>6</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="3"/>
+        <v>5.2380952380952379E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="2">
-        <v>1.94492E-2</v>
+        <v>1.3358999999999999E-2</v>
       </c>
       <c r="C14" s="2">
         <v>4.5238099999999996E-3</v>
@@ -7767,28 +7723,35 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E14" s="2">
-        <v>1.9970399999999998E-3</v>
+        <v>2.0425500000000002E-3</v>
       </c>
       <c r="F14" s="3">
-        <v>8.2809600000000001E-5</v>
+        <v>8.2881599999999996E-5</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="0"/>
-        <v>1.94492</v>
+        <v>1.3358999999999999</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" si="1"/>
-        <v>1.4787428571428571</v>
+        <v>1.4800285714285715</v>
       </c>
       <c r="I14" s="5">
         <f t="shared" si="2"/>
-        <v>291.22281132353959</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+        <v>297.34212698390843</v>
+      </c>
+      <c r="S14">
+        <v>7</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="3"/>
+        <v>6.1904761904761907E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="2">
-        <v>2.0858999999999999E-2</v>
+        <v>1.4949199999999999E-2</v>
       </c>
       <c r="C15" s="2">
         <v>4.5238099999999996E-3</v>
@@ -7797,28 +7760,35 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E15" s="2">
-        <v>1.9871300000000001E-3</v>
+        <v>2.03112E-3</v>
       </c>
       <c r="F15" s="3">
-        <v>8.2872699999999997E-5</v>
+        <v>8.2836699999999999E-5</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="0"/>
-        <v>2.0858999999999996</v>
+        <v>1.4949199999999998</v>
       </c>
       <c r="H15" s="6">
         <f t="shared" si="1"/>
-        <v>1.4798696428571427</v>
+        <v>1.4792267857142858</v>
       </c>
       <c r="I15" s="5">
         <f t="shared" si="2"/>
-        <v>289.33655296664716</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+        <v>295.99883638970454</v>
+      </c>
+      <c r="S15">
+        <v>8</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="3"/>
+        <v>7.1428571428571435E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="2">
-        <v>2.2223699999999999E-2</v>
+        <v>1.6494399999999999E-2</v>
       </c>
       <c r="C16" s="2">
         <v>4.5238099999999996E-3</v>
@@ -7827,28 +7797,35 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E16" s="2">
-        <v>1.9759299999999999E-3</v>
+        <v>2.01921E-3</v>
       </c>
       <c r="F16" s="3">
-        <v>8.2634100000000002E-5</v>
+        <v>8.2849700000000001E-5</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" si="0"/>
-        <v>2.2223699999999997</v>
+        <v>1.6494399999999998</v>
       </c>
       <c r="H16" s="6">
         <f t="shared" si="1"/>
-        <v>1.4756089285714287</v>
+        <v>1.4794589285714286</v>
       </c>
       <c r="I16" s="5">
         <f t="shared" si="2"/>
-        <v>289.36963219893983</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <v>294.17083147999722</v>
+      </c>
+      <c r="S16">
+        <v>9</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="3"/>
+        <v>8.0952380952380963E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="2">
-        <v>2.35432E-2</v>
+        <v>1.7994400000000001E-2</v>
       </c>
       <c r="C17" s="2">
         <v>4.5238099999999996E-3</v>
@@ -7857,28 +7834,35 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E17" s="2">
-        <v>1.9677499999999999E-3</v>
+        <v>2.0083499999999999E-3</v>
       </c>
       <c r="F17" s="3">
-        <v>8.2689999999999996E-5</v>
+        <v>8.2864199999999999E-5</v>
       </c>
       <c r="G17" s="5">
         <f t="shared" si="0"/>
-        <v>2.35432</v>
+        <v>1.7994399999999999</v>
       </c>
       <c r="H17" s="6">
         <f t="shared" si="1"/>
-        <v>1.4766071428571428</v>
+        <v>1.4797178571428571</v>
       </c>
       <c r="I17" s="5">
         <f t="shared" si="2"/>
-        <v>287.78220590007709</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <v>292.48629206821488</v>
+      </c>
+      <c r="S17">
+        <v>10</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="3"/>
+        <v>9.0476190476190491E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="2">
-        <v>2.4817700000000002E-2</v>
+        <v>1.94492E-2</v>
       </c>
       <c r="C18" s="2">
         <v>4.5238099999999996E-3</v>
@@ -7887,28 +7871,35 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E18" s="2">
-        <v>1.9554899999999998E-3</v>
+        <v>1.9970399999999998E-3</v>
       </c>
       <c r="F18" s="3">
-        <v>8.1727199999999999E-5</v>
+        <v>8.2809600000000001E-5</v>
       </c>
       <c r="G18" s="5">
         <f t="shared" si="0"/>
-        <v>2.48177</v>
+        <v>1.94492</v>
       </c>
       <c r="H18" s="6">
         <f t="shared" si="1"/>
-        <v>1.4594142857142858</v>
+        <v>1.4787428571428571</v>
       </c>
       <c r="I18" s="5">
         <f t="shared" si="2"/>
-        <v>292.76715955077378</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>291.22281132353959</v>
+      </c>
+      <c r="S18">
+        <v>11</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="3"/>
+        <v>1.0000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2">
-        <v>2.6047000000000001E-2</v>
+        <v>2.0858999999999999E-2</v>
       </c>
       <c r="C19" s="2">
         <v>4.5238099999999996E-3</v>
@@ -7917,28 +7908,35 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E19" s="2">
-        <v>1.9515800000000001E-3</v>
+        <v>1.9871300000000001E-3</v>
       </c>
       <c r="F19" s="3">
-        <v>8.1499099999999994E-5</v>
+        <v>8.2872699999999997E-5</v>
       </c>
       <c r="G19" s="5">
         <f t="shared" si="0"/>
-        <v>2.6047000000000002</v>
+        <v>2.0858999999999996</v>
       </c>
       <c r="H19" s="6">
         <f t="shared" si="1"/>
-        <v>1.4553410714285713</v>
+        <v>1.4798696428571427</v>
       </c>
       <c r="I19" s="5">
         <f t="shared" si="2"/>
-        <v>293.81957967471033</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+        <v>289.33655296664716</v>
+      </c>
+      <c r="S19">
+        <v>12</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="3"/>
+        <v>1.0952380952380955E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="2">
-        <v>2.7231200000000001E-2</v>
+        <v>2.2223699999999999E-2</v>
       </c>
       <c r="C20" s="2">
         <v>4.5238099999999996E-3</v>
@@ -7947,28 +7945,35 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E20" s="2">
-        <v>1.93483E-3</v>
+        <v>1.9759299999999999E-3</v>
       </c>
       <c r="F20" s="3">
-        <v>7.8186600000000001E-5</v>
+        <v>8.2634100000000002E-5</v>
       </c>
       <c r="G20" s="5">
         <f t="shared" si="0"/>
-        <v>2.7231200000000002</v>
+        <v>2.2223699999999997</v>
       </c>
       <c r="H20" s="6">
         <f t="shared" si="1"/>
-        <v>1.3961892857142857</v>
+        <v>1.4756089285714287</v>
       </c>
       <c r="I20" s="5">
         <f t="shared" si="2"/>
-        <v>316.50323748432913</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+        <v>289.36963219893983</v>
+      </c>
+      <c r="S20">
+        <v>13</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="3"/>
+        <v>1.1904761904761908E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="2">
-        <v>2.8370300000000001E-2</v>
+        <v>2.35432E-2</v>
       </c>
       <c r="C21" s="2">
         <v>4.5238099999999996E-3</v>
@@ -7977,28 +7982,35 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E21" s="2">
-        <v>1.9445E-3</v>
+        <v>1.9677499999999999E-3</v>
       </c>
       <c r="F21" s="3">
-        <v>7.7939499999999995E-5</v>
+        <v>8.2689999999999996E-5</v>
       </c>
       <c r="G21" s="5">
         <f t="shared" si="0"/>
-        <v>2.8370299999999999</v>
+        <v>2.35432</v>
       </c>
       <c r="H21" s="6">
         <f t="shared" si="1"/>
-        <v>1.3917767857142855</v>
+        <v>1.4766071428571428</v>
       </c>
       <c r="I21" s="5">
         <f t="shared" si="2"/>
-        <v>320.10519084914694</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+        <v>287.78220590007709</v>
+      </c>
+      <c r="S21">
+        <v>14</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="3"/>
+        <v>1.285714285714286E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="2">
-        <v>2.9464299999999999E-2</v>
+        <v>2.4817700000000002E-2</v>
       </c>
       <c r="C22" s="2">
         <v>4.5238099999999996E-3</v>
@@ -8007,28 +8019,35 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E22" s="2">
-        <v>1.90482E-3</v>
+        <v>1.9554899999999998E-3</v>
       </c>
       <c r="F22" s="3">
-        <v>6.9861600000000002E-5</v>
+        <v>8.1727199999999999E-5</v>
       </c>
       <c r="G22" s="5">
         <f t="shared" si="0"/>
-        <v>2.9464299999999999</v>
+        <v>2.48177</v>
       </c>
       <c r="H22" s="6">
         <f t="shared" si="1"/>
-        <v>1.2475285714285715</v>
+        <v>1.4594142857142858</v>
       </c>
       <c r="I22" s="5">
         <f t="shared" si="2"/>
-        <v>390.28053059366175</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+        <v>292.76715955077378</v>
+      </c>
+      <c r="S22">
+        <v>15</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="3"/>
+        <v>1.3809523809523813E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="2">
-        <v>3.0166700000000001E-2</v>
+        <v>2.6047000000000001E-2</v>
       </c>
       <c r="C23" s="2">
         <v>4.5238099999999996E-3</v>
@@ -8037,28 +8056,35 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E23" s="2">
-        <v>1.83007E-3</v>
+        <v>1.9515800000000001E-3</v>
       </c>
       <c r="F23" s="3">
-        <v>7.1098800000000004E-5</v>
+        <v>8.1499099999999994E-5</v>
       </c>
       <c r="G23" s="5">
         <f t="shared" si="0"/>
-        <v>3.01667</v>
+        <v>2.6047000000000002</v>
       </c>
       <c r="H23" s="6">
         <f t="shared" si="1"/>
-        <v>1.2696214285714287</v>
+        <v>1.4553410714285713</v>
       </c>
       <c r="I23" s="5">
         <f t="shared" si="2"/>
-        <v>362.02883284348519</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+        <v>293.81957967471033</v>
+      </c>
+      <c r="S23">
+        <v>16</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="3"/>
+        <v>1.4761904761904766E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="2">
-        <v>3.0535099999999999E-2</v>
+        <v>2.7231200000000001E-2</v>
       </c>
       <c r="C24" s="2">
         <v>4.5238099999999996E-3</v>
@@ -8067,28 +8093,35 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E24" s="2">
-        <v>1.7973900000000001E-3</v>
+        <v>1.93483E-3</v>
       </c>
       <c r="F24" s="3">
-        <v>7.0774599999999998E-5</v>
+        <v>7.8186600000000001E-5</v>
       </c>
       <c r="G24" s="5">
         <f t="shared" si="0"/>
-        <v>3.0535099999999997</v>
+        <v>2.7231200000000002</v>
       </c>
       <c r="H24" s="6">
         <f t="shared" si="1"/>
-        <v>1.2638321428571428</v>
+        <v>1.3961892857142857</v>
       </c>
       <c r="I24" s="5">
         <f t="shared" si="2"/>
-        <v>358.82894982524465</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+        <v>316.50323748432913</v>
+      </c>
+      <c r="S24">
+        <v>17</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="3"/>
+        <v>1.5714285714285719E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="2">
-        <v>3.09737E-2</v>
+        <v>2.8370300000000001E-2</v>
       </c>
       <c r="C25" s="2">
         <v>4.5238099999999996E-3</v>
@@ -8097,28 +8130,35 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E25" s="2">
-        <v>1.7612800000000001E-3</v>
+        <v>1.9445E-3</v>
       </c>
       <c r="F25" s="3">
-        <v>7.0269200000000001E-5</v>
+        <v>7.7939499999999995E-5</v>
       </c>
       <c r="G25" s="5">
         <f t="shared" si="0"/>
-        <v>3.0973699999999997</v>
+        <v>2.8370299999999999</v>
       </c>
       <c r="H25" s="6">
         <f t="shared" si="1"/>
-        <v>1.254807142857143</v>
+        <v>1.3917767857142855</v>
       </c>
       <c r="I25" s="5">
         <f t="shared" si="2"/>
-        <v>356.69611986769917</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+        <v>320.10519084914694</v>
+      </c>
+      <c r="S25">
+        <v>18</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="3"/>
+        <v>1.666666666666667E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="2">
-        <v>3.1482499999999997E-2</v>
+        <v>2.9464299999999999E-2</v>
       </c>
       <c r="C26" s="2">
         <v>4.5238099999999996E-3</v>
@@ -8127,28 +8167,35 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E26" s="2">
-        <v>1.7197099999999999E-3</v>
+        <v>1.90482E-3</v>
       </c>
       <c r="F26" s="3">
-        <v>6.9856699999999998E-5</v>
+        <v>6.9861600000000002E-5</v>
       </c>
       <c r="G26" s="5">
         <f t="shared" si="0"/>
-        <v>3.1482499999999995</v>
+        <v>2.9464299999999999</v>
       </c>
       <c r="H26" s="6">
         <f t="shared" si="1"/>
-        <v>1.2474410714285715</v>
+        <v>1.2475285714285715</v>
       </c>
       <c r="I26" s="5">
         <f t="shared" si="2"/>
-        <v>352.40258451064159</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+        <v>390.28053059366175</v>
+      </c>
+      <c r="S26">
+        <v>19</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="3"/>
+        <v>1.7619047619047621E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="2">
-        <v>3.2061399999999997E-2</v>
+        <v>3.0166700000000001E-2</v>
       </c>
       <c r="C27" s="2">
         <v>4.5238099999999996E-3</v>
@@ -8157,28 +8204,35 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E27" s="2">
-        <v>1.67257E-3</v>
+        <v>1.83007E-3</v>
       </c>
       <c r="F27" s="3">
-        <v>6.9541400000000005E-5</v>
+        <v>7.1098800000000004E-5</v>
       </c>
       <c r="G27" s="5">
         <f t="shared" si="0"/>
-        <v>3.2061399999999995</v>
+        <v>3.01667</v>
       </c>
       <c r="H27" s="6">
         <f t="shared" si="1"/>
-        <v>1.2418107142857144</v>
+        <v>1.2696214285714287</v>
       </c>
       <c r="I27" s="5">
         <f t="shared" si="2"/>
-        <v>345.85769567170053</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+        <v>362.02883284348519</v>
+      </c>
+      <c r="S27">
+        <v>20</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="3"/>
+        <v>1.8571428571428572E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="2">
-        <v>3.2710500000000003E-2</v>
+        <v>3.0535099999999999E-2</v>
       </c>
       <c r="C28" s="2">
         <v>4.5238099999999996E-3</v>
@@ -8187,28 +8241,35 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E28" s="2">
-        <v>1.61988E-3</v>
+        <v>1.7973900000000001E-3</v>
       </c>
       <c r="F28" s="3">
-        <v>6.9313000000000005E-5</v>
+        <v>7.0774599999999998E-5</v>
       </c>
       <c r="G28" s="5">
         <f t="shared" si="0"/>
-        <v>3.2710500000000002</v>
+        <v>3.0535099999999997</v>
       </c>
       <c r="H28" s="6">
         <f t="shared" si="1"/>
-        <v>1.2377321428571431</v>
+        <v>1.2638321428571428</v>
       </c>
       <c r="I28" s="5">
         <f t="shared" si="2"/>
-        <v>337.17351286149523</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+        <v>358.82894982524465</v>
+      </c>
+      <c r="S28">
+        <v>21</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="3"/>
+        <v>1.9523809523809523E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="2">
-        <v>3.3429800000000003E-2</v>
+        <v>3.09737E-2</v>
       </c>
       <c r="C29" s="2">
         <v>4.5238099999999996E-3</v>
@@ -8217,28 +8278,35 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E29" s="2">
-        <v>1.56161E-3</v>
+        <v>1.7612800000000001E-3</v>
       </c>
       <c r="F29" s="3">
-        <v>6.9156499999999994E-5</v>
+        <v>7.0269200000000001E-5</v>
       </c>
       <c r="G29" s="5">
         <f t="shared" si="0"/>
-        <v>3.3429800000000003</v>
+        <v>3.0973699999999997</v>
       </c>
       <c r="H29" s="6">
         <f t="shared" si="1"/>
-        <v>1.2349375</v>
+        <v>1.254807142857143</v>
       </c>
       <c r="I29" s="5">
         <f t="shared" si="2"/>
-        <v>326.51758089794714</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+        <v>356.69611986769917</v>
+      </c>
+      <c r="S29">
+        <v>22</v>
+      </c>
+      <c r="T29">
+        <f>T28+$D$2/2</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="2">
-        <v>3.4219300000000001E-2</v>
+        <v>3.1482499999999997E-2</v>
       </c>
       <c r="C30" s="2">
         <v>4.5238099999999996E-3</v>
@@ -8247,28 +8315,28 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E30" s="2">
-        <v>1.49774E-3</v>
+        <v>1.7197099999999999E-3</v>
       </c>
       <c r="F30" s="3">
-        <v>6.9053600000000006E-5</v>
+        <v>6.9856699999999998E-5</v>
       </c>
       <c r="G30" s="5">
         <f t="shared" si="0"/>
-        <v>3.4219300000000001</v>
+        <v>3.1482499999999995</v>
       </c>
       <c r="H30" s="6">
         <f t="shared" si="1"/>
-        <v>1.2331000000000001</v>
+        <v>1.2474410714285715</v>
       </c>
       <c r="I30" s="5">
         <f t="shared" si="2"/>
-        <v>314.09699327285466</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+        <v>352.40258451064159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="2">
-        <v>3.5078900000000003E-2</v>
+        <v>3.2061399999999997E-2</v>
       </c>
       <c r="C31" s="2">
         <v>4.5238099999999996E-3</v>
@@ -8277,28 +8345,28 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E31" s="2">
-        <v>1.42826E-3</v>
+        <v>1.67257E-3</v>
       </c>
       <c r="F31" s="3">
-        <v>6.8988700000000006E-5</v>
+        <v>6.9541400000000005E-5</v>
       </c>
       <c r="G31" s="5">
         <f t="shared" si="0"/>
-        <v>3.5078900000000002</v>
+        <v>3.2061399999999995</v>
       </c>
       <c r="H31" s="6">
         <f t="shared" si="1"/>
-        <v>1.2319410714285715</v>
+        <v>1.2418107142857144</v>
       </c>
       <c r="I31" s="5">
         <f t="shared" si="2"/>
-        <v>300.08988066402657</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+        <v>345.85769567170053</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="2">
-        <v>3.6008800000000001E-2</v>
+        <v>3.2710500000000003E-2</v>
       </c>
       <c r="C32" s="2">
         <v>4.5238099999999996E-3</v>
@@ -8307,28 +8375,28 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E32" s="2">
-        <v>1.3531400000000001E-3</v>
+        <v>1.61988E-3</v>
       </c>
       <c r="F32" s="3">
-        <v>6.8946600000000002E-5</v>
+        <v>6.9313000000000005E-5</v>
       </c>
       <c r="G32" s="5">
         <f t="shared" si="0"/>
-        <v>3.6008800000000001</v>
+        <v>3.2710500000000002</v>
       </c>
       <c r="H32" s="6">
         <f t="shared" si="1"/>
-        <v>1.2311892857142857</v>
+        <v>1.2377321428571431</v>
       </c>
       <c r="I32" s="5">
         <f t="shared" si="2"/>
-        <v>284.65382467072112</v>
+        <v>337.17351286149523</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="2">
-        <v>3.7008800000000001E-2</v>
+        <v>3.3429800000000003E-2</v>
       </c>
       <c r="C33" s="2">
         <v>4.5238099999999996E-3</v>
@@ -8337,28 +8405,28 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E33" s="2">
-        <v>1.2724100000000001E-3</v>
+        <v>1.56161E-3</v>
       </c>
       <c r="F33" s="3">
-        <v>6.8922400000000003E-5</v>
+        <v>6.9156499999999994E-5</v>
       </c>
       <c r="G33" s="5">
         <f t="shared" si="0"/>
-        <v>3.7008800000000002</v>
+        <v>3.3429800000000003</v>
       </c>
       <c r="H33" s="6">
         <f t="shared" si="1"/>
-        <v>1.2307571428571429</v>
+        <v>1.2349375</v>
       </c>
       <c r="I33" s="5">
         <f t="shared" si="2"/>
-        <v>267.8590287301156</v>
+        <v>326.51758089794714</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="2">
-        <v>3.8078899999999999E-2</v>
+        <v>3.4219300000000001E-2</v>
       </c>
       <c r="C34" s="2">
         <v>4.5238099999999996E-3</v>
@@ -8367,28 +8435,28 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E34" s="2">
-        <v>1.1859800000000001E-3</v>
+        <v>1.49774E-3</v>
       </c>
       <c r="F34" s="3">
-        <v>6.8900799999999996E-5</v>
+        <v>6.9053600000000006E-5</v>
       </c>
       <c r="G34" s="5">
         <f t="shared" si="0"/>
-        <v>3.80789</v>
+        <v>3.4219300000000001</v>
       </c>
       <c r="H34" s="6">
         <f t="shared" si="1"/>
-        <v>1.2303714285714284</v>
+        <v>1.2331000000000001</v>
       </c>
       <c r="I34" s="5">
         <f t="shared" si="2"/>
-        <v>249.82093894725642</v>
+        <v>314.09699327285466</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="2">
-        <v>3.9219299999999999E-2</v>
+        <v>3.5078900000000003E-2</v>
       </c>
       <c r="C35" s="2">
         <v>4.5238099999999996E-3</v>
@@ -8397,28 +8465,28 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E35" s="2">
-        <v>1.09403E-3</v>
+        <v>1.42826E-3</v>
       </c>
       <c r="F35" s="3">
-        <v>6.8899799999999994E-5</v>
+        <v>6.8988700000000006E-5</v>
       </c>
       <c r="G35" s="5">
         <f t="shared" si="0"/>
-        <v>3.9219299999999997</v>
+        <v>3.5078900000000002</v>
       </c>
       <c r="H35" s="6">
         <f t="shared" si="1"/>
-        <v>1.2303535714285714</v>
+        <v>1.2319410714285715</v>
       </c>
       <c r="I35" s="5">
         <f t="shared" si="2"/>
-        <v>230.45880663284174</v>
+        <v>300.08988066402657</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="2">
-        <v>4.0429800000000002E-2</v>
+        <v>3.6008800000000001E-2</v>
       </c>
       <c r="C36" s="2">
         <v>4.5238099999999996E-3</v>
@@ -8427,28 +8495,28 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E36" s="2">
-        <v>9.9612700000000008E-4</v>
+        <v>1.3531400000000001E-3</v>
       </c>
       <c r="F36" s="3">
-        <v>6.8874000000000005E-5</v>
+        <v>6.8946600000000002E-5</v>
       </c>
       <c r="G36" s="5">
         <f t="shared" si="0"/>
-        <v>4.04298</v>
+        <v>3.6008800000000001</v>
       </c>
       <c r="H36" s="6">
         <f t="shared" si="1"/>
-        <v>1.2298928571428573</v>
+        <v>1.2311892857142857</v>
       </c>
       <c r="I36" s="5">
         <f t="shared" si="2"/>
-        <v>209.99265246749721</v>
+        <v>284.65382467072112</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="2">
-        <v>4.1710499999999998E-2</v>
+        <v>3.7008800000000001E-2</v>
       </c>
       <c r="C37" s="2">
         <v>4.5238099999999996E-3</v>
@@ -8457,28 +8525,28 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E37" s="2">
-        <v>8.9318100000000005E-4</v>
+        <v>1.2724100000000001E-3</v>
       </c>
       <c r="F37" s="3">
-        <v>6.8918500000000001E-5</v>
+        <v>6.8922400000000003E-5</v>
       </c>
       <c r="G37" s="5">
         <f t="shared" si="0"/>
-        <v>4.1710499999999993</v>
+        <v>3.7008800000000002</v>
       </c>
       <c r="H37" s="6">
         <f t="shared" si="1"/>
-        <v>1.2306874999999999</v>
+        <v>1.2307571428571429</v>
       </c>
       <c r="I37" s="5">
         <f t="shared" si="2"/>
-        <v>188.04762077958389</v>
+        <v>267.8590287301156</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="2">
-        <v>4.30614E-2</v>
+        <v>3.8078899999999999E-2</v>
       </c>
       <c r="C38" s="2">
         <v>4.5238099999999996E-3</v>
@@ -8487,28 +8555,28 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E38" s="2">
-        <v>7.8333099999999996E-4</v>
+        <v>1.1859800000000001E-3</v>
       </c>
       <c r="F38" s="3">
-        <v>6.8862400000000007E-5</v>
+        <v>6.8900799999999996E-5</v>
       </c>
       <c r="G38" s="5">
         <f t="shared" si="0"/>
-        <v>4.3061400000000001</v>
+        <v>3.80789</v>
       </c>
       <c r="H38" s="6">
         <f t="shared" si="1"/>
-        <v>1.2296857142857145</v>
+        <v>1.2303714285714284</v>
       </c>
       <c r="I38" s="5">
         <f t="shared" si="2"/>
-        <v>165.18895449930204</v>
+        <v>249.82093894725642</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="2">
-        <v>4.4482500000000001E-2</v>
+        <v>3.9219299999999999E-2</v>
       </c>
       <c r="C39" s="2">
         <v>4.5238099999999996E-3</v>
@@ -8517,28 +8585,28 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E39" s="2">
-        <v>6.7006399999999995E-4</v>
+        <v>1.09403E-3</v>
       </c>
       <c r="F39" s="3">
-        <v>6.9074100000000003E-5</v>
+        <v>6.8899799999999994E-5</v>
       </c>
       <c r="G39" s="5">
         <f t="shared" si="0"/>
-        <v>4.4482499999999998</v>
+        <v>3.9219299999999997</v>
       </c>
       <c r="H39" s="6">
         <f t="shared" si="1"/>
-        <v>1.2334660714285715</v>
+        <v>1.2303535714285714</v>
       </c>
       <c r="I39" s="5">
         <f t="shared" si="2"/>
-        <v>140.43838144896236</v>
+        <v>230.45880663284174</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="2">
-        <v>4.5973699999999999E-2</v>
+        <v>4.0429800000000002E-2</v>
       </c>
       <c r="C40" s="2">
         <v>4.5238099999999996E-3</v>
@@ -8547,28 +8615,28 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E40" s="2">
-        <v>5.4671199999999998E-4</v>
+        <v>9.9612700000000008E-4</v>
       </c>
       <c r="F40" s="3">
-        <v>6.9029599999999994E-5</v>
+        <v>6.8874000000000005E-5</v>
       </c>
       <c r="G40" s="5">
         <f t="shared" si="0"/>
-        <v>4.5973699999999997</v>
+        <v>4.04298</v>
       </c>
       <c r="H40" s="6">
         <f t="shared" si="1"/>
-        <v>1.2326714285714284</v>
+        <v>1.2298928571428573</v>
       </c>
       <c r="I40" s="5">
         <f t="shared" si="2"/>
-        <v>114.73287935518809</v>
+        <v>209.99265246749721</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="2">
-        <v>4.7535099999999997E-2</v>
+        <v>4.1710499999999998E-2</v>
       </c>
       <c r="C41" s="2">
         <v>4.5238099999999996E-3</v>
@@ -8577,28 +8645,28 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E41" s="2">
-        <v>4.2424999999999999E-4</v>
+        <v>8.9318100000000005E-4</v>
       </c>
       <c r="F41" s="3">
-        <v>6.9904499999999995E-5</v>
+        <v>6.8918500000000001E-5</v>
       </c>
       <c r="G41" s="5">
         <f t="shared" si="0"/>
-        <v>4.7535099999999995</v>
+        <v>4.1710499999999993</v>
       </c>
       <c r="H41" s="6">
         <f t="shared" si="1"/>
-        <v>1.2482946428571429</v>
+        <v>1.2306874999999999</v>
       </c>
       <c r="I41" s="5">
         <f t="shared" si="2"/>
-        <v>86.818361159908093</v>
+        <v>188.04762077958389</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="2">
-        <v>4.9166700000000001E-2</v>
+        <v>4.30614E-2</v>
       </c>
       <c r="C42" s="2">
         <v>4.5238099999999996E-3</v>
@@ -8607,28 +8675,28 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E42" s="2">
-        <v>2.8338400000000002E-4</v>
+        <v>7.8333099999999996E-4</v>
       </c>
       <c r="F42" s="3">
-        <v>7.0913400000000004E-5</v>
+        <v>6.8862400000000007E-5</v>
       </c>
       <c r="G42" s="5">
         <f t="shared" si="0"/>
-        <v>4.9166699999999999</v>
+        <v>4.3061400000000001</v>
       </c>
       <c r="H42" s="6">
         <f t="shared" si="1"/>
-        <v>1.2663107142857144</v>
+        <v>1.2296857142857145</v>
       </c>
       <c r="I42" s="5">
         <f t="shared" si="2"/>
-        <v>56.353216454882165</v>
+        <v>165.18895449930204</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="2">
-        <v>5.0250000000000003E-2</v>
+        <v>4.4482500000000001E-2</v>
       </c>
       <c r="C43" s="2">
         <v>4.5238099999999996E-3</v>
@@ -8637,28 +8705,28 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E43" s="2">
-        <v>2.02661E-4</v>
+        <v>6.7006399999999995E-4</v>
       </c>
       <c r="F43" s="3">
-        <v>7.6566700000000007E-5</v>
+        <v>6.9074100000000003E-5</v>
       </c>
       <c r="G43" s="5">
         <f t="shared" si="0"/>
-        <v>5.0250000000000004</v>
+        <v>4.4482499999999998</v>
       </c>
       <c r="H43" s="6">
         <f t="shared" si="1"/>
-        <v>1.3672625</v>
+        <v>1.2334660714285715</v>
       </c>
       <c r="I43" s="5">
         <f t="shared" si="2"/>
-        <v>34.569279038926901</v>
+        <v>140.43838144896236</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="2">
-        <v>5.0802600000000003E-2</v>
+        <v>4.5973699999999999E-2</v>
       </c>
       <c r="C44" s="2">
         <v>4.5238099999999996E-3</v>
@@ -8667,28 +8735,28 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E44" s="2">
-        <v>2.1942899999999999E-4</v>
+        <v>5.4671199999999998E-4</v>
       </c>
       <c r="F44" s="3">
-        <v>7.5213499999999994E-5</v>
+        <v>6.9029599999999994E-5</v>
       </c>
       <c r="G44" s="5">
         <f t="shared" si="0"/>
-        <v>5.08026</v>
+        <v>4.5973699999999997</v>
       </c>
       <c r="H44" s="6">
         <f t="shared" si="1"/>
-        <v>1.3430982142857142</v>
+        <v>1.2326714285714284</v>
       </c>
       <c r="I44" s="5">
         <f t="shared" si="2"/>
-        <v>38.788450101452689</v>
+        <v>114.73287935518809</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="2">
-        <v>5.1460499999999999E-2</v>
+        <v>4.7535099999999997E-2</v>
       </c>
       <c r="C45" s="2">
         <v>4.5238099999999996E-3</v>
@@ -8697,28 +8765,28 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E45" s="2">
-        <v>2.0964700000000001E-4</v>
+        <v>4.2424999999999999E-4</v>
       </c>
       <c r="F45" s="3">
-        <v>7.7997999999999994E-5</v>
+        <v>6.9904499999999995E-5</v>
       </c>
       <c r="G45" s="5">
         <f t="shared" si="0"/>
-        <v>5.1460499999999998</v>
+        <v>4.7535099999999995</v>
       </c>
       <c r="H45" s="6">
         <f t="shared" si="1"/>
-        <v>1.3928214285714284</v>
+        <v>1.2482946428571429</v>
       </c>
       <c r="I45" s="5">
         <f t="shared" si="2"/>
-        <v>34.460511430263679</v>
+        <v>86.818361159908093</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="2">
-        <v>5.2223699999999998E-2</v>
+        <v>4.9166700000000001E-2</v>
       </c>
       <c r="C46" s="2">
         <v>4.5238099999999996E-3</v>
@@ -8727,28 +8795,28 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E46" s="2">
-        <v>2.0763199999999999E-4</v>
+        <v>2.8338400000000002E-4</v>
       </c>
       <c r="F46" s="3">
-        <v>7.9299099999999994E-5</v>
+        <v>7.0913400000000004E-5</v>
       </c>
       <c r="G46" s="5">
         <f t="shared" si="0"/>
-        <v>5.2223699999999997</v>
+        <v>4.9166699999999999</v>
       </c>
       <c r="H46" s="6">
         <f t="shared" si="1"/>
-        <v>1.4160553571428571</v>
+        <v>1.2663107142857144</v>
       </c>
       <c r="I46" s="5">
         <f t="shared" si="2"/>
-        <v>33.018532754066612</v>
+        <v>56.353216454882165</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="2">
-        <v>5.3092100000000003E-2</v>
+        <v>5.0250000000000003E-2</v>
       </c>
       <c r="C47" s="2">
         <v>4.5238099999999996E-3</v>
@@ -8757,28 +8825,28 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E47" s="2">
-        <v>2.00488E-4</v>
+        <v>2.02661E-4</v>
       </c>
       <c r="F47" s="3">
-        <v>8.0890900000000002E-5</v>
+        <v>7.6566700000000007E-5</v>
       </c>
       <c r="G47" s="5">
         <f t="shared" si="0"/>
-        <v>5.3092100000000002</v>
+        <v>5.0250000000000004</v>
       </c>
       <c r="H47" s="6">
         <f t="shared" si="1"/>
-        <v>1.4444803571428573</v>
+        <v>1.3672625</v>
       </c>
       <c r="I47" s="5">
         <f t="shared" si="2"/>
-        <v>30.640020293297951</v>
+        <v>34.569279038926901</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="2">
-        <v>5.4065799999999997E-2</v>
+        <v>5.0802600000000003E-2</v>
       </c>
       <c r="C48" s="2">
         <v>4.5238099999999996E-3</v>
@@ -8787,28 +8855,28 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E48" s="2">
-        <v>1.9403700000000001E-4</v>
+        <v>2.1942899999999999E-4</v>
       </c>
       <c r="F48" s="3">
-        <v>8.1761099999999999E-5</v>
+        <v>7.5213499999999994E-5</v>
       </c>
       <c r="G48" s="5">
         <f t="shared" si="0"/>
-        <v>5.4065799999999999</v>
+        <v>5.08026</v>
       </c>
       <c r="H48" s="6">
         <f t="shared" si="1"/>
-        <v>1.4600196428571428</v>
+        <v>1.3430982142857142</v>
       </c>
       <c r="I48" s="5">
         <f t="shared" si="2"/>
-        <v>29.026261255739325</v>
+        <v>38.788450101452689</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="2">
-        <v>5.5144699999999998E-2</v>
+        <v>5.1460499999999999E-2</v>
       </c>
       <c r="C49" s="2">
         <v>4.5238099999999996E-3</v>
@@ -8817,28 +8885,28 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E49" s="2">
-        <v>1.85735E-4</v>
+        <v>2.0964700000000001E-4</v>
       </c>
       <c r="F49" s="3">
-        <v>8.23857E-5</v>
+        <v>7.7997999999999994E-5</v>
       </c>
       <c r="G49" s="5">
         <f t="shared" si="0"/>
-        <v>5.5144699999999993</v>
+        <v>5.1460499999999998</v>
       </c>
       <c r="H49" s="6">
         <f t="shared" si="1"/>
-        <v>1.4711732142857143</v>
+        <v>1.3928214285714284</v>
       </c>
       <c r="I49" s="5">
         <f t="shared" si="2"/>
-        <v>27.364661351760358</v>
+        <v>34.460511430263679</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="2">
-        <v>5.6328900000000001E-2</v>
+        <v>5.2223699999999998E-2</v>
       </c>
       <c r="C50" s="2">
         <v>4.5238099999999996E-3</v>
@@ -8847,28 +8915,28 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E50" s="2">
-        <v>1.77066E-4</v>
+        <v>2.0763199999999999E-4</v>
       </c>
       <c r="F50" s="3">
-        <v>8.2651400000000006E-5</v>
+        <v>7.9299099999999994E-5</v>
       </c>
       <c r="G50" s="5">
         <f t="shared" si="0"/>
-        <v>5.6328899999999997</v>
+        <v>5.2223699999999997</v>
       </c>
       <c r="H50" s="6">
         <f t="shared" si="1"/>
-        <v>1.4759178571428573</v>
+        <v>1.4160553571428571</v>
       </c>
       <c r="I50" s="5">
         <f t="shared" si="2"/>
-        <v>25.919985118807706</v>
+        <v>33.018532754066612</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="2">
-        <v>5.76184E-2</v>
+        <v>5.3092100000000003E-2</v>
       </c>
       <c r="C51" s="2">
         <v>4.5238099999999996E-3</v>
@@ -8877,28 +8945,28 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E51" s="2">
-        <v>1.67307E-4</v>
+        <v>2.00488E-4</v>
       </c>
       <c r="F51" s="3">
-        <v>8.2793499999999999E-5</v>
+        <v>8.0890900000000002E-5</v>
       </c>
       <c r="G51" s="5">
         <f t="shared" si="0"/>
-        <v>5.7618400000000003</v>
+        <v>5.3092100000000002</v>
       </c>
       <c r="H51" s="6">
         <f t="shared" si="1"/>
-        <v>1.4784553571428571</v>
+        <v>1.4444803571428573</v>
       </c>
       <c r="I51" s="5">
         <f t="shared" si="2"/>
-        <v>24.407406109349576</v>
+        <v>30.640020293297951</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="2">
-        <v>5.9013200000000002E-2</v>
+        <v>5.4065799999999997E-2</v>
       </c>
       <c r="C52" s="2">
         <v>4.5238099999999996E-3</v>
@@ -8907,28 +8975,28 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E52" s="2">
-        <v>1.5695499999999999E-4</v>
+        <v>1.9403700000000001E-4</v>
       </c>
       <c r="F52" s="3">
-        <v>8.2833700000000006E-5</v>
+        <v>8.1761099999999999E-5</v>
       </c>
       <c r="G52" s="5">
         <f t="shared" si="0"/>
-        <v>5.9013200000000001</v>
+        <v>5.4065799999999999</v>
       </c>
       <c r="H52" s="6">
         <f t="shared" si="1"/>
-        <v>1.4791732142857144</v>
+        <v>1.4600196428571428</v>
       </c>
       <c r="I52" s="5">
         <f t="shared" si="2"/>
-        <v>22.874996363886481</v>
+        <v>29.026261255739325</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="2">
-        <v>6.0513200000000003E-2</v>
+        <v>5.5144699999999998E-2</v>
       </c>
       <c r="C53" s="2">
         <v>4.5238099999999996E-3</v>
@@ -8937,28 +9005,28 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E53" s="2">
-        <v>1.45659E-4</v>
+        <v>1.85735E-4</v>
       </c>
       <c r="F53" s="3">
-        <v>8.2845900000000006E-5</v>
+        <v>8.23857E-5</v>
       </c>
       <c r="G53" s="5">
         <f t="shared" si="0"/>
-        <v>6.0513200000000005</v>
+        <v>5.5144699999999993</v>
       </c>
       <c r="H53" s="6">
         <f t="shared" si="1"/>
-        <v>1.4793910714285716</v>
+        <v>1.4711732142857143</v>
       </c>
       <c r="I53" s="5">
         <f t="shared" si="2"/>
-        <v>21.222438488136898</v>
+        <v>27.364661351760358</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="2">
-        <v>6.2118399999999997E-2</v>
+        <v>5.6328900000000001E-2</v>
       </c>
       <c r="C54" s="2">
         <v>4.5238099999999996E-3</v>
@@ -8967,28 +9035,28 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E54" s="2">
-        <v>1.3375600000000001E-4</v>
+        <v>1.77066E-4</v>
       </c>
       <c r="F54" s="3">
-        <v>8.2855900000000001E-5</v>
+        <v>8.2651400000000006E-5</v>
       </c>
       <c r="G54" s="5">
         <f t="shared" si="0"/>
-        <v>6.2118399999999996</v>
+        <v>5.6328899999999997</v>
       </c>
       <c r="H54" s="6">
         <f t="shared" si="1"/>
-        <v>1.479569642857143</v>
+        <v>1.4759178571428573</v>
       </c>
       <c r="I54" s="5">
         <f t="shared" si="2"/>
-        <v>19.483473917194022</v>
+        <v>25.919985118807706</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="2">
-        <v>6.3828899999999994E-2</v>
+        <v>5.76184E-2</v>
       </c>
       <c r="C55" s="2">
         <v>4.5238099999999996E-3</v>
@@ -8997,28 +9065,28 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E55" s="2">
-        <v>1.20831E-4</v>
+        <v>1.67307E-4</v>
       </c>
       <c r="F55" s="3">
-        <v>8.2837300000000001E-5</v>
+        <v>8.2793499999999999E-5</v>
       </c>
       <c r="G55" s="5">
         <f t="shared" si="0"/>
-        <v>6.3828899999999988</v>
+        <v>5.7618400000000003</v>
       </c>
       <c r="H55" s="6">
         <f t="shared" si="1"/>
-        <v>1.4792375</v>
+        <v>1.4784553571428571</v>
       </c>
       <c r="I55" s="5">
         <f t="shared" si="2"/>
-        <v>17.608667774253075</v>
+        <v>24.407406109349576</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="2">
-        <v>6.56447E-2</v>
+        <v>5.9013200000000002E-2</v>
       </c>
       <c r="C56" s="2">
         <v>4.5238099999999996E-3</v>
@@ -9027,28 +9095,28 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E56" s="2">
-        <v>1.07472E-4</v>
+        <v>1.5695499999999999E-4</v>
       </c>
       <c r="F56" s="3">
-        <v>8.2868399999999994E-5</v>
+        <v>8.2833700000000006E-5</v>
       </c>
       <c r="G56" s="5">
         <f t="shared" si="0"/>
-        <v>6.56447</v>
+        <v>5.9013200000000001</v>
       </c>
       <c r="H56" s="6">
         <f t="shared" si="1"/>
-        <v>1.4797928571428571</v>
+        <v>1.4791732142857144</v>
       </c>
       <c r="I56" s="5">
         <f t="shared" si="2"/>
-        <v>15.650111050745092</v>
+        <v>22.874996363886481</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="2">
-        <v>6.7565799999999995E-2</v>
+        <v>6.0513200000000003E-2</v>
       </c>
       <c r="C57" s="2">
         <v>4.5238099999999996E-3</v>
@@ -9057,28 +9125,28 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E57" s="2">
-        <v>9.2785499999999994E-5</v>
+        <v>1.45659E-4</v>
       </c>
       <c r="F57" s="3">
-        <v>8.2814500000000005E-5</v>
+        <v>8.2845900000000006E-5</v>
       </c>
       <c r="G57" s="5">
         <f t="shared" si="0"/>
-        <v>6.7565799999999996</v>
+        <v>6.0513200000000005</v>
       </c>
       <c r="H57" s="6">
         <f t="shared" si="1"/>
-        <v>1.4788303571428572</v>
+        <v>1.4793910714285716</v>
       </c>
       <c r="I57" s="5">
         <f t="shared" si="2"/>
-        <v>13.529051319384472</v>
+        <v>21.222438488136898</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="2">
-        <v>6.9592100000000004E-2</v>
+        <v>6.2118399999999997E-2</v>
       </c>
       <c r="C58" s="2">
         <v>4.5238099999999996E-3</v>
@@ -9087,28 +9155,28 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E58" s="2">
-        <v>7.8147500000000004E-5</v>
+        <v>1.3375600000000001E-4</v>
       </c>
       <c r="F58" s="3">
-        <v>8.2898600000000006E-5</v>
+        <v>8.2855900000000001E-5</v>
       </c>
       <c r="G58" s="5">
         <f t="shared" si="0"/>
-        <v>6.9592100000000006</v>
+        <v>6.2118399999999996</v>
       </c>
       <c r="H58" s="6">
         <f t="shared" si="1"/>
-        <v>1.480332142857143</v>
+        <v>1.479569642857143</v>
       </c>
       <c r="I58" s="5">
         <f t="shared" si="2"/>
-        <v>11.371577008380886</v>
+        <v>19.483473917194022</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="2">
-        <v>7.1723700000000001E-2</v>
+        <v>6.3828899999999994E-2</v>
       </c>
       <c r="C59" s="2">
         <v>4.5238099999999996E-3</v>
@@ -9117,28 +9185,28 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E59" s="2">
-        <v>6.1445299999999999E-5</v>
+        <v>1.20831E-4</v>
       </c>
       <c r="F59" s="3">
-        <v>8.2767400000000003E-5</v>
+        <v>8.2837300000000001E-5</v>
       </c>
       <c r="G59" s="5">
         <f t="shared" si="0"/>
-        <v>7.1723699999999999</v>
+        <v>6.3828899999999988</v>
       </c>
       <c r="H59" s="6">
         <f t="shared" si="1"/>
-        <v>1.4779892857142858</v>
+        <v>1.4792375</v>
       </c>
       <c r="I59" s="5">
         <f t="shared" si="2"/>
-        <v>8.9695373656875557</v>
+        <v>17.608667774253075</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="2">
-        <v>7.3960499999999998E-2</v>
+        <v>6.56447E-2</v>
       </c>
       <c r="C60" s="2">
         <v>4.5238099999999996E-3</v>
@@ -9147,109 +9215,229 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="E60" s="2">
-        <v>4.5883600000000002E-5</v>
+        <v>1.07472E-4</v>
       </c>
       <c r="F60" s="3">
-        <v>8.2965800000000004E-5</v>
+        <v>8.2868399999999994E-5</v>
       </c>
       <c r="G60" s="5">
         <f t="shared" si="0"/>
-        <v>7.3960499999999998</v>
+        <v>6.56447</v>
       </c>
       <c r="H60" s="6">
         <f t="shared" si="1"/>
-        <v>1.4815321428571429</v>
+        <v>1.4797928571428571</v>
       </c>
       <c r="I60" s="5">
         <f t="shared" si="2"/>
-        <v>6.6659073730042264</v>
+        <v>15.650111050745092</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="2">
+        <v>6.7565799999999995E-2</v>
+      </c>
+      <c r="C61" s="2">
+        <v>4.5238099999999996E-3</v>
+      </c>
+      <c r="D61" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E61" s="2">
+        <v>9.2785499999999994E-5</v>
+      </c>
+      <c r="F61" s="3">
+        <v>8.2814500000000005E-5</v>
+      </c>
+      <c r="G61" s="5">
+        <f t="shared" si="0"/>
+        <v>6.7565799999999996</v>
+      </c>
+      <c r="H61" s="6">
+        <f t="shared" si="1"/>
+        <v>1.4788303571428572</v>
+      </c>
+      <c r="I61" s="5">
+        <f t="shared" si="2"/>
+        <v>13.529051319384472</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="1"/>
+      <c r="B62" s="2">
+        <v>6.9592100000000004E-2</v>
+      </c>
+      <c r="C62" s="2">
+        <v>4.5238099999999996E-3</v>
+      </c>
+      <c r="D62" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E62" s="2">
+        <v>7.8147500000000004E-5</v>
+      </c>
+      <c r="F62" s="3">
+        <v>8.2898600000000006E-5</v>
+      </c>
+      <c r="G62" s="5">
+        <f t="shared" si="0"/>
+        <v>6.9592100000000006</v>
+      </c>
+      <c r="H62" s="6">
+        <f t="shared" si="1"/>
+        <v>1.480332142857143</v>
+      </c>
+      <c r="I62" s="5">
+        <f t="shared" si="2"/>
+        <v>11.371577008380886</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="1"/>
+      <c r="B63" s="2">
+        <v>7.1723700000000001E-2</v>
+      </c>
+      <c r="C63" s="2">
+        <v>4.5238099999999996E-3</v>
+      </c>
+      <c r="D63" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E63" s="2">
+        <v>6.1445299999999999E-5</v>
+      </c>
+      <c r="F63" s="3">
+        <v>8.2767400000000003E-5</v>
+      </c>
+      <c r="G63" s="5">
+        <f t="shared" si="0"/>
+        <v>7.1723699999999999</v>
+      </c>
+      <c r="H63" s="6">
+        <f t="shared" si="1"/>
+        <v>1.4779892857142858</v>
+      </c>
+      <c r="I63" s="5">
+        <f t="shared" si="2"/>
+        <v>8.9695373656875557</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="1"/>
+      <c r="B64" s="2">
+        <v>7.3960499999999998E-2</v>
+      </c>
+      <c r="C64" s="2">
+        <v>4.5238099999999996E-3</v>
+      </c>
+      <c r="D64" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E64" s="2">
+        <v>4.5883600000000002E-5</v>
+      </c>
+      <c r="F64" s="3">
+        <v>8.2965800000000004E-5</v>
+      </c>
+      <c r="G64" s="5">
+        <f t="shared" si="0"/>
+        <v>7.3960499999999998</v>
+      </c>
+      <c r="H64" s="6">
+        <f t="shared" si="1"/>
+        <v>1.4815321428571429</v>
+      </c>
+      <c r="I64" s="5">
+        <f t="shared" si="2"/>
+        <v>6.6659073730042264</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="1"/>
+      <c r="B65" s="2">
         <v>7.6302599999999998E-2</v>
       </c>
-      <c r="C61" s="2">
-        <v>4.5238099999999996E-3</v>
-      </c>
-      <c r="D61" s="2">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="E61" s="2">
+      <c r="C65" s="2">
+        <v>4.5238099999999996E-3</v>
+      </c>
+      <c r="D65" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E65" s="2">
         <v>2.6675100000000001E-5</v>
       </c>
-      <c r="F61" s="3">
+      <c r="F65" s="3">
         <v>8.2678900000000006E-5</v>
       </c>
-      <c r="G61" s="5">
+      <c r="G65" s="5">
         <f t="shared" si="0"/>
         <v>7.6302599999999998</v>
       </c>
-      <c r="H61" s="6">
+      <c r="H65" s="6">
         <f t="shared" si="1"/>
         <v>1.4764089285714288</v>
       </c>
-      <c r="I61" s="5">
+      <c r="I65" s="5">
         <f t="shared" si="2"/>
         <v>3.9022642600042525</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B62" s="2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B66" s="2">
         <v>7.8750000000000001E-2</v>
       </c>
-      <c r="C62" s="2">
-        <v>4.5238099999999996E-3</v>
-      </c>
-      <c r="D62" s="2">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="E62" s="2">
+      <c r="C66" s="2">
+        <v>4.5238099999999996E-3</v>
+      </c>
+      <c r="D66" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E66" s="2">
         <v>1.0866000000000001E-5</v>
       </c>
-      <c r="F62" s="3">
+      <c r="F66" s="3">
         <v>8.3117599999999999E-5</v>
       </c>
-      <c r="G62" s="5">
-        <f t="shared" ref="G62:G63" si="3">B62/$M$2</f>
+      <c r="G66" s="5">
+        <f t="shared" ref="G66:G67" si="4">B66/$M$6</f>
         <v>7.875</v>
       </c>
-      <c r="H62" s="6">
-        <f t="shared" ref="H62:H63" si="4">F62/$O$2</f>
+      <c r="H66" s="6">
+        <f t="shared" ref="H66:H67" si="5">F66/$O$6</f>
         <v>1.4842428571428572</v>
       </c>
-      <c r="I62" s="5">
-        <f t="shared" ref="I62:I63" si="5">E62/1000/F62^2</f>
+      <c r="I66" s="5">
+        <f t="shared" ref="I66:I67" si="6">E66/1000/F66^2</f>
         <v>1.5728369797732198</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B63" s="2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B67" s="2">
         <v>0.08</v>
       </c>
-      <c r="C63" s="2">
-        <v>4.5238099999999996E-3</v>
-      </c>
-      <c r="D63" s="2">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="E63" s="2">
+      <c r="C67" s="2">
+        <v>4.5238099999999996E-3</v>
+      </c>
+      <c r="D67" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="E67" s="2">
         <v>0</v>
       </c>
-      <c r="F63" s="3">
+      <c r="F67" s="3">
         <v>8.3117599999999999E-5</v>
       </c>
-      <c r="G63" s="5">
-        <f t="shared" si="3"/>
+      <c r="G67" s="5">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="H63" s="6">
-        <f t="shared" si="4"/>
+      <c r="H67" s="6">
+        <f t="shared" si="5"/>
         <v>1.4842428571428572</v>
       </c>
-      <c r="I63" s="5">
-        <f t="shared" si="5"/>
+      <c r="I67" s="5">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>

--- a/3d_code/BetchenAnotherVersion/porous_plug.xlsx
+++ b/3d_code/BetchenAnotherVersion/porous_plug.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>U</t>
   </si>
@@ -89,6 +89,15 @@
   </si>
   <si>
     <t>Da</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>x3</t>
   </si>
 </sst>
 </file>
@@ -112,7 +121,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -120,12 +129,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F6"/>
+  <dimension ref="B2:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,14 +472,15 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
-        <v>9.9999999999999995E-7</v>
+      <c r="C2" s="2">
+        <f>0.000004</f>
+        <v>3.9999999999999998E-6</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
       <c r="F2">
-        <f>60*C4*C5*C3/C6</f>
+        <f>C4*C5*C3/C6</f>
         <v>1000</v>
       </c>
     </row>
@@ -468,7 +489,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -506,7 +527,49 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.06</v>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <f>C8*$C$3</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <f>C9*$C$3</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>50</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" ref="D9:D10" si="0">C10*$C$3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D11">
+        <f>SUM(D8:D10)</f>
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/3d_code/BetchenAnotherVersion/porous_plug.xlsx
+++ b/3d_code/BetchenAnotherVersion/porous_plug.xlsx
@@ -463,7 +463,7 @@
   <dimension ref="B2:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -509,7 +509,7 @@
       <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <f>C2/C3^2</f>
         <v>9.9999999999999985E-3</v>
       </c>
@@ -562,7 +562,7 @@
         <v>50</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" ref="D9:D10" si="0">C10*$C$3</f>
+        <f t="shared" ref="D10" si="0">C10*$C$3</f>
         <v>1</v>
       </c>
     </row>
